--- a/R Analysis/Complied Data.xlsx
+++ b/R Analysis/Complied Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Honours-Project1\R Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218CD245-268B-457A-A57A-AA789546D825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E26157-D63B-4B05-8363-3C1C9775FD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>Dates</t>
   </si>
@@ -392,16 +392,19 @@
   <si>
     <t>ADPYEG</t>
   </si>
+  <si>
+    <t>Australia uncertainty index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
-    <numFmt numFmtId="166" formatCode="0.00;\-0.00;0.00;@"/>
+    <numFmt numFmtId="164" formatCode="0.0;\-0.0;0.0;@"/>
+    <numFmt numFmtId="165" formatCode="0.00;\-0.00;0.00;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +435,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -476,10 +490,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -507,11 +522,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="1" xr:uid="{0356D9EC-8859-4E47-910C-D954B9A51E65}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,20 +830,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT161"/>
+  <dimension ref="A1:BU161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="BU1" sqref="BU1:BU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="71.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" ht="71.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1061,11 @@
       <c r="BT1" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="BU1" s="13" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>38993</v>
       </c>
@@ -1247,8 +1270,11 @@
       <c r="BT2" s="12">
         <v>4.5393858477970513E-2</v>
       </c>
+      <c r="BU2">
+        <v>-1.2663492500002134</v>
+      </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>39028</v>
       </c>
@@ -1453,8 +1479,11 @@
       <c r="BT3" s="12">
         <v>4.5393858477970513E-2</v>
       </c>
+      <c r="BU3">
+        <v>-0.91094685139230214</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>39056</v>
       </c>
@@ -1659,8 +1688,11 @@
       <c r="BT4" s="12">
         <v>5.5702917771883131E-2</v>
       </c>
+      <c r="BU4">
+        <v>-1.129759307027256</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>39119</v>
       </c>
@@ -1865,8 +1897,11 @@
       <c r="BT5" s="12">
         <v>5.5702917771883131E-2</v>
       </c>
+      <c r="BU5">
+        <v>-0.78800506481078281</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>39147</v>
       </c>
@@ -2071,8 +2106,11 @@
       <c r="BT6" s="12">
         <v>4.5931758530183726E-2</v>
       </c>
+      <c r="BU6">
+        <v>-0.79397807957578448</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>39175</v>
       </c>
@@ -2277,8 +2315,11 @@
       <c r="BT7" s="12">
         <v>4.5931758530183726E-2</v>
       </c>
+      <c r="BU7">
+        <v>-0.95118664339525094</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>39203</v>
       </c>
@@ -2483,8 +2524,11 @@
       <c r="BT8" s="12">
         <v>4.5931758530183726E-2</v>
       </c>
+      <c r="BU8">
+        <v>-0.98911490144087499</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>39238</v>
       </c>
@@ -2689,8 +2733,11 @@
       <c r="BT9" s="12">
         <v>6.7688378033205585E-2</v>
       </c>
+      <c r="BU9">
+        <v>-0.61245606709821299</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>39266</v>
       </c>
@@ -2895,8 +2942,11 @@
       <c r="BT10" s="12">
         <v>6.7688378033205585E-2</v>
       </c>
+      <c r="BU10">
+        <v>0.41353660114052965</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>39301</v>
       </c>
@@ -3101,8 +3151,11 @@
       <c r="BT11" s="12">
         <v>6.7688378033205585E-2</v>
       </c>
+      <c r="BU11">
+        <v>2.2520059976471853</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>39329</v>
       </c>
@@ -3307,8 +3360,11 @@
       <c r="BT12" s="12">
         <v>9.8339719029374245E-2</v>
       </c>
+      <c r="BU12">
+        <v>0.39778142810636247</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>39357</v>
       </c>
@@ -3513,8 +3569,11 @@
       <c r="BT13" s="12">
         <v>9.8339719029374245E-2</v>
       </c>
+      <c r="BU13">
+        <v>0.57485320823428854</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>39392</v>
       </c>
@@ -3719,8 +3778,11 @@
       <c r="BT14" s="12">
         <v>9.8339719029374245E-2</v>
       </c>
+      <c r="BU14">
+        <v>1.6594576651570732</v>
+      </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>39420</v>
       </c>
@@ -3925,8 +3987,11 @@
       <c r="BT15" s="12">
         <v>0.10678391959798995</v>
       </c>
+      <c r="BU15">
+        <v>0.33186667875239129</v>
+      </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>39483</v>
       </c>
@@ -4131,8 +4196,11 @@
       <c r="BT16" s="12">
         <v>0.10678391959798995</v>
       </c>
+      <c r="BU16">
+        <v>0.97209611605705981</v>
+      </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>39511</v>
       </c>
@@ -4337,8 +4405,11 @@
       <c r="BT17" s="12">
         <v>9.9121706398996132E-2</v>
       </c>
+      <c r="BU17">
+        <v>1.6904551387487603</v>
+      </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>39539</v>
       </c>
@@ -4543,8 +4614,11 @@
       <c r="BT18" s="12">
         <v>9.9121706398996132E-2</v>
       </c>
+      <c r="BU18">
+        <v>0.51884103355454014</v>
+      </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>39574</v>
       </c>
@@ -4758,8 +4832,11 @@
       <c r="BT19" s="12">
         <v>9.9121706398996132E-2</v>
       </c>
+      <c r="BU19">
+        <v>-3.127336555252818E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>39602</v>
       </c>
@@ -4973,8 +5050,11 @@
       <c r="BT20" s="12">
         <v>3.9473684210526452E-2</v>
       </c>
+      <c r="BU20">
+        <v>-0.14084174476233274</v>
+      </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>39630</v>
       </c>
@@ -5188,8 +5268,11 @@
       <c r="BT21" s="12">
         <v>3.9473684210526452E-2</v>
       </c>
+      <c r="BU21">
+        <v>0.91750983363553906</v>
+      </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>39665</v>
       </c>
@@ -5403,8 +5486,11 @@
       <c r="BT22" s="12">
         <v>3.9473684210526452E-2</v>
       </c>
+      <c r="BU22">
+        <v>1.7304153524781551</v>
+      </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>39693</v>
       </c>
@@ -5618,8 +5704,11 @@
       <c r="BT23" s="12">
         <v>-2.3255813953488701E-3</v>
       </c>
+      <c r="BU23">
+        <v>5.3325080316419387</v>
+      </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>39728</v>
       </c>
@@ -5833,8 +5922,11 @@
       <c r="BT24" s="12">
         <v>-2.3255813953488701E-3</v>
       </c>
+      <c r="BU24">
+        <v>11.149727446678112</v>
+      </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>39756</v>
       </c>
@@ -6051,8 +6143,11 @@
       <c r="BT25" s="12">
         <v>-2.3255813953488701E-3</v>
       </c>
+      <c r="BU25">
+        <v>8.312845593438869</v>
+      </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>39784</v>
       </c>
@@ -6269,8 +6364,11 @@
       <c r="BT26" s="12">
         <v>-3.5187287173666225E-2</v>
       </c>
+      <c r="BU26">
+        <v>4.3568263505047513</v>
+      </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>39847</v>
       </c>
@@ -6487,8 +6585,11 @@
       <c r="BT27" s="12">
         <v>-3.5187287173666225E-2</v>
       </c>
+      <c r="BU27">
+        <v>3.3115231920685035</v>
+      </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>39875</v>
       </c>
@@ -6705,8 +6806,11 @@
       <c r="BT28" s="12">
         <v>-1.4840182648401794E-2</v>
       </c>
+      <c r="BU28">
+        <v>3.0873710488176549</v>
+      </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>39910</v>
       </c>
@@ -6923,8 +7027,11 @@
       <c r="BT29" s="12">
         <v>-1.4840182648401794E-2</v>
       </c>
+      <c r="BU29">
+        <v>2.3585863439830903</v>
+      </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>39938</v>
       </c>
@@ -7141,8 +7248,11 @@
       <c r="BT30" s="12">
         <v>-1.4840182648401794E-2</v>
       </c>
+      <c r="BU30">
+        <v>2.2333297809686385</v>
+      </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>39966</v>
       </c>
@@ -7359,8 +7469,11 @@
       <c r="BT31" s="12">
         <v>2.8768699654775604E-2</v>
       </c>
+      <c r="BU31">
+        <v>2.4324929102499486</v>
+      </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>40001</v>
       </c>
@@ -7577,8 +7690,11 @@
       <c r="BT32" s="12">
         <v>2.8768699654775604E-2</v>
       </c>
+      <c r="BU32">
+        <v>1.6795427410855193</v>
+      </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>40029</v>
       </c>
@@ -7795,8 +7911,11 @@
       <c r="BT33" s="12">
         <v>2.8768699654775604E-2</v>
       </c>
+      <c r="BU33">
+        <v>0.45463356551528977</v>
+      </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>40057</v>
       </c>
@@ -8013,8 +8132,11 @@
       <c r="BT34" s="12">
         <v>8.0419580419580486E-2</v>
       </c>
+      <c r="BU34">
+        <v>0.72052826134948245</v>
+      </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>40092</v>
       </c>
@@ -8231,8 +8353,11 @@
       <c r="BT35" s="12">
         <v>8.0419580419580486E-2</v>
       </c>
+      <c r="BU35">
+        <v>1.0950481648377159</v>
+      </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>40120</v>
       </c>
@@ -8449,8 +8574,11 @@
       <c r="BT36" s="12">
         <v>8.0419580419580486E-2</v>
       </c>
+      <c r="BU36">
+        <v>0.87422278620440375</v>
+      </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>40148</v>
       </c>
@@ -8667,8 +8795,11 @@
       <c r="BT37" s="12">
         <v>0.15058823529411761</v>
       </c>
+      <c r="BU37">
+        <v>0.57706867370594916</v>
+      </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>40211</v>
       </c>
@@ -8885,8 +9016,11 @@
       <c r="BT38" s="12">
         <v>0.15058823529411761</v>
       </c>
+      <c r="BU38">
+        <v>0.22993517510814637</v>
+      </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>40239</v>
       </c>
@@ -9103,8 +9237,11 @@
       <c r="BT39" s="12">
         <v>0.15990730011587484</v>
       </c>
+      <c r="BU39">
+        <v>-0.17296483463475798</v>
+      </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>40274</v>
       </c>
@@ -9321,8 +9458,11 @@
       <c r="BT40" s="12">
         <v>0.15990730011587484</v>
       </c>
+      <c r="BU40">
+        <v>-0.23520811583116955</v>
+      </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40302</v>
       </c>
@@ -9539,8 +9679,11 @@
       <c r="BT41" s="12">
         <v>0.15990730011587484</v>
       </c>
+      <c r="BU41">
+        <v>2.8202782752416327</v>
+      </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40330</v>
       </c>
@@ -9757,8 +9900,11 @@
       <c r="BT42" s="12">
         <v>0.1420581655480983</v>
       </c>
+      <c r="BU42">
+        <v>2.1645268099327124</v>
+      </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>40365</v>
       </c>
@@ -9975,8 +10121,11 @@
       <c r="BT43" s="12">
         <v>0.1420581655480983</v>
       </c>
+      <c r="BU43">
+        <v>1.3660483699086154</v>
+      </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>40393</v>
       </c>
@@ -10193,8 +10342,11 @@
       <c r="BT44" s="12">
         <v>0.1420581655480983</v>
       </c>
+      <c r="BU44">
+        <v>0.33612165615405465</v>
+      </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>40428</v>
       </c>
@@ -10411,8 +10563,11 @@
       <c r="BT45" s="12">
         <v>8.8457389428263242E-2</v>
       </c>
+      <c r="BU45">
+        <v>4.5776873695923828E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>40456</v>
       </c>
@@ -10629,8 +10784,11 @@
       <c r="BT46" s="12">
         <v>8.8457389428263242E-2</v>
       </c>
+      <c r="BU46">
+        <v>0.82130203465062745</v>
+      </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>40484</v>
       </c>
@@ -10847,8 +11005,11 @@
       <c r="BT47" s="12">
         <v>8.8457389428263242E-2</v>
       </c>
+      <c r="BU47">
+        <v>0.53850940958329307</v>
+      </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>40519</v>
       </c>
@@ -11065,8 +11226,11 @@
       <c r="BT48" s="12">
         <v>3.9877300613496994E-2</v>
       </c>
+      <c r="BU48">
+        <v>2.7977835017245815E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>40575</v>
       </c>
@@ -11283,8 +11447,11 @@
       <c r="BT49" s="12">
         <v>3.9877300613496994E-2</v>
       </c>
+      <c r="BU49">
+        <v>-0.46516663059357377</v>
+      </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>40603</v>
       </c>
@@ -11501,8 +11668,11 @@
       <c r="BT50" s="12">
         <v>1.1988011988012017E-2</v>
       </c>
+      <c r="BU50">
+        <v>6.8191338296916121E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>40638</v>
       </c>
@@ -11719,8 +11889,11 @@
       <c r="BT51" s="12">
         <v>1.1988011988012017E-2</v>
       </c>
+      <c r="BU51">
+        <v>-9.6688870158054552E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>40666</v>
       </c>
@@ -11937,8 +12110,11 @@
       <c r="BT52" s="12">
         <v>1.1988011988012017E-2</v>
       </c>
+      <c r="BU52">
+        <v>0.47256484508407159</v>
+      </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>40701</v>
       </c>
@@ -12155,8 +12331,11 @@
       <c r="BT53" s="12">
         <v>-6.8560235063661965E-3</v>
       </c>
+      <c r="BU53">
+        <v>0.19458155116834408</v>
+      </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>40729</v>
       </c>
@@ -12373,8 +12552,11 @@
       <c r="BT54" s="12">
         <v>-6.8560235063661965E-3</v>
       </c>
+      <c r="BU54">
+        <v>0.40109932264902992</v>
+      </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>40757</v>
       </c>
@@ -12591,8 +12773,11 @@
       <c r="BT55" s="12">
         <v>-6.8560235063661965E-3</v>
       </c>
+      <c r="BU55">
+        <v>1.4377995935801671</v>
+      </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>40792</v>
       </c>
@@ -12809,8 +12994,11 @@
       <c r="BT56" s="12">
         <v>-8.9197224975223546E-3</v>
       </c>
+      <c r="BU56">
+        <v>2.4297263878368178</v>
+      </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>40820</v>
       </c>
@@ -13027,8 +13215,11 @@
       <c r="BT57" s="12">
         <v>-8.9197224975223546E-3</v>
       </c>
+      <c r="BU57">
+        <v>2.8319286701435433</v>
+      </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>40848</v>
       </c>
@@ -13245,8 +13436,11 @@
       <c r="BT58" s="12">
         <v>-8.9197224975223546E-3</v>
       </c>
+      <c r="BU58">
+        <v>2.1224741745633771</v>
+      </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>40883</v>
       </c>
@@ -13463,8 +13657,11 @@
       <c r="BT59" s="12">
         <v>-2.9498525073746312E-2</v>
       </c>
+      <c r="BU59">
+        <v>1.0297482149509836</v>
+      </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>40946</v>
       </c>
@@ -13681,8 +13878,11 @@
       <c r="BT60" s="12">
         <v>-2.9498525073746312E-2</v>
       </c>
+      <c r="BU60">
+        <v>-0.10029466481930566</v>
+      </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>40974</v>
       </c>
@@ -13899,8 +14099,11 @@
       <c r="BT61" s="12">
         <v>-4.9358341559723592E-3</v>
       </c>
+      <c r="BU61">
+        <v>-0.18059546114994426</v>
+      </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41002</v>
       </c>
@@ -14117,8 +14320,11 @@
       <c r="BT62" s="12">
         <v>-4.9358341559723592E-3</v>
       </c>
+      <c r="BU62">
+        <v>-0.20539480321421744</v>
+      </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41030</v>
       </c>
@@ -14335,8 +14541,11 @@
       <c r="BT63" s="12">
         <v>-4.9358341559723592E-3</v>
       </c>
+      <c r="BU63">
+        <v>0.34458299617836652</v>
+      </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41065</v>
       </c>
@@ -14553,8 +14762,11 @@
       <c r="BT64" s="12">
         <v>-8.8757396449704699E-3</v>
       </c>
+      <c r="BU64">
+        <v>0.27624618097096676</v>
+      </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>41093</v>
       </c>
@@ -14771,8 +14983,11 @@
       <c r="BT65" s="12">
         <v>-8.8757396449704699E-3</v>
       </c>
+      <c r="BU65">
+        <v>-7.3768692721364326E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>41128</v>
       </c>
@@ -14989,8 +15204,11 @@
       <c r="BT66" s="12">
         <v>-8.8757396449704699E-3</v>
       </c>
+      <c r="BU66">
+        <v>-1.2767421793276204</v>
+      </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>41156</v>
       </c>
@@ -15207,8 +15425,11 @@
       <c r="BT67" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="BU67">
+        <v>-0.45109458263377489</v>
+      </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>41184</v>
       </c>
@@ -15425,8 +15646,11 @@
       <c r="BT68" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="BU68">
+        <v>-0.76970590733468436</v>
+      </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>41219</v>
       </c>
@@ -15643,8 +15867,11 @@
       <c r="BT69" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="BU69">
+        <v>-1.0382312159876297</v>
+      </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>41247</v>
       </c>
@@ -15861,8 +16088,11 @@
       <c r="BT70" s="12">
         <v>4.0526849037487336E-2</v>
       </c>
+      <c r="BU70">
+        <v>-1.0691549899203683</v>
+      </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>41310</v>
       </c>
@@ -16079,8 +16309,11 @@
       <c r="BT71" s="12">
         <v>4.0526849037487336E-2</v>
       </c>
+      <c r="BU71">
+        <v>-0.96047161160416683</v>
+      </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>41338</v>
       </c>
@@ -16297,8 +16530,11 @@
       <c r="BT72" s="12">
         <v>2.5793650793650879E-2</v>
       </c>
+      <c r="BU72">
+        <v>-0.70954627657163893</v>
+      </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>41366</v>
       </c>
@@ -16515,8 +16751,11 @@
       <c r="BT73" s="12">
         <v>2.5793650793650879E-2</v>
       </c>
+      <c r="BU73">
+        <v>-0.77330867339775899</v>
+      </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>41401</v>
       </c>
@@ -16733,8 +16972,11 @@
       <c r="BT74" s="12">
         <v>2.5793650793650879E-2</v>
       </c>
+      <c r="BU74">
+        <v>-9.225490200552959E-2</v>
+      </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>41429</v>
       </c>
@@ -16951,8 +17193,11 @@
       <c r="BT75" s="12">
         <v>5.5721393034825817E-2</v>
       </c>
+      <c r="BU75">
+        <v>1.429682361350388</v>
+      </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>41457</v>
       </c>
@@ -17169,8 +17414,11 @@
       <c r="BT76" s="12">
         <v>5.5721393034825817E-2</v>
       </c>
+      <c r="BU76">
+        <v>0.53303871280371062</v>
+      </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>41492</v>
       </c>
@@ -17387,8 +17635,11 @@
       <c r="BT77" s="12">
         <v>5.5721393034825817E-2</v>
       </c>
+      <c r="BU77">
+        <v>-0.34914561334149508</v>
+      </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>41520</v>
       </c>
@@ -17605,8 +17856,11 @@
       <c r="BT78" s="12">
         <v>7.6616915422885595E-2</v>
       </c>
+      <c r="BU78">
+        <v>-4.9763603132906897E-2</v>
+      </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>41548</v>
       </c>
@@ -17823,8 +18077,11 @@
       <c r="BT79" s="12">
         <v>7.6616915422885595E-2</v>
       </c>
+      <c r="BU79">
+        <v>-0.99395764929258679</v>
+      </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>41583</v>
       </c>
@@ -18041,8 +18298,11 @@
       <c r="BT80" s="12">
         <v>7.6616915422885595E-2</v>
       </c>
+      <c r="BU80">
+        <v>-0.79119066738725818</v>
+      </c>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>41611</v>
       </c>
@@ -18259,8 +18519,11 @@
       <c r="BT81" s="12">
         <v>8.7633885102239531E-2</v>
       </c>
+      <c r="BU81">
+        <v>-0.26807106559766014</v>
+      </c>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>41674</v>
       </c>
@@ -18477,8 +18740,11 @@
       <c r="BT82" s="12">
         <v>8.7633885102239531E-2</v>
       </c>
+      <c r="BU82">
+        <v>-0.77230749428669576</v>
+      </c>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>41702</v>
       </c>
@@ -18695,8 +18961,11 @@
       <c r="BT83" s="12">
         <v>9.9613152804642127E-2</v>
       </c>
+      <c r="BU83">
+        <v>-1.0454187375232133</v>
+      </c>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>41730</v>
       </c>
@@ -18913,8 +19182,11 @@
       <c r="BT84" s="12">
         <v>9.9613152804642127E-2</v>
       </c>
+      <c r="BU84">
+        <v>-1.1743818249038418</v>
+      </c>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>41765</v>
       </c>
@@ -19131,8 +19403,11 @@
       <c r="BT85" s="12">
         <v>9.9613152804642127E-2</v>
       </c>
+      <c r="BU85">
+        <v>-1.5508134352639837</v>
+      </c>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>41793</v>
       </c>
@@ -19349,8 +19624,11 @@
       <c r="BT86" s="12">
         <v>8.859566446748357E-2</v>
       </c>
+      <c r="BU86">
+        <v>-1.1300001587331132</v>
+      </c>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>41821</v>
       </c>
@@ -19567,8 +19845,11 @@
       <c r="BT87" s="12">
         <v>8.859566446748357E-2</v>
       </c>
+      <c r="BU87">
+        <v>-1.3931230306185229</v>
+      </c>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>41856</v>
       </c>
@@ -19785,8 +20066,11 @@
       <c r="BT88" s="12">
         <v>8.859566446748357E-2</v>
       </c>
+      <c r="BU88">
+        <v>-1.7407262245088444</v>
+      </c>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>41884</v>
       </c>
@@ -20003,8 +20287,11 @@
       <c r="BT89" s="12">
         <v>7.3012939001848354E-2</v>
       </c>
+      <c r="BU89">
+        <v>-0.83052999169924391</v>
+      </c>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>41919</v>
       </c>
@@ -20221,8 +20508,11 @@
       <c r="BT90" s="12">
         <v>7.3012939001848354E-2</v>
       </c>
+      <c r="BU90">
+        <v>0.38089997502388567</v>
+      </c>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>41947</v>
       </c>
@@ -20439,8 +20729,11 @@
       <c r="BT91" s="12">
         <v>7.3012939001848354E-2</v>
       </c>
+      <c r="BU91">
+        <v>-0.21181719930168139</v>
+      </c>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>41975</v>
       </c>
@@ -20657,8 +20950,11 @@
       <c r="BT92" s="12">
         <v>5.9086839749328504E-2</v>
       </c>
+      <c r="BU92">
+        <v>-0.42375822274849562</v>
+      </c>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42038</v>
       </c>
@@ -20875,8 +21171,11 @@
       <c r="BT93" s="12">
         <v>5.9086839749328504E-2</v>
       </c>
+      <c r="BU93">
+        <v>0.14144336856195924</v>
+      </c>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>42066</v>
       </c>
@@ -21093,8 +21392,11 @@
       <c r="BT94" s="12">
         <v>4.9252418645558439E-2</v>
       </c>
+      <c r="BU94">
+        <v>0.58721702514918594</v>
+      </c>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42101</v>
       </c>
@@ -21311,8 +21613,11 @@
       <c r="BT95" s="12">
         <v>4.9252418645558439E-2</v>
       </c>
+      <c r="BU95">
+        <v>0.8045014029894435</v>
+      </c>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>42129</v>
       </c>
@@ -21529,8 +21834,11 @@
       <c r="BT96" s="12">
         <v>4.9252418645558439E-2</v>
       </c>
+      <c r="BU96">
+        <v>0.61999475822219063</v>
+      </c>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42157</v>
       </c>
@@ -21747,8 +22055,11 @@
       <c r="BT97" s="12">
         <v>7.532467532467535E-2</v>
       </c>
+      <c r="BU97">
+        <v>1.0396898135548642</v>
+      </c>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>42192</v>
       </c>
@@ -21965,8 +22276,11 @@
       <c r="BT98" s="12">
         <v>7.532467532467535E-2</v>
       </c>
+      <c r="BU98">
+        <v>0.46805242216488696</v>
+      </c>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>42220</v>
       </c>
@@ -22183,8 +22497,11 @@
       <c r="BT99" s="12">
         <v>7.532467532467535E-2</v>
       </c>
+      <c r="BU99">
+        <v>1.1711431119292752</v>
+      </c>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>42248</v>
       </c>
@@ -22401,8 +22718,11 @@
       <c r="BT100" s="12">
         <v>8.6993970714901031E-2</v>
       </c>
+      <c r="BU100">
+        <v>0.85892073407507397</v>
+      </c>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>42283</v>
       </c>
@@ -22619,8 +22939,11 @@
       <c r="BT101" s="12">
         <v>8.6993970714901031E-2</v>
       </c>
+      <c r="BU101">
+        <v>0.61130418598698966</v>
+      </c>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>42311</v>
       </c>
@@ -22837,8 +23160,11 @@
       <c r="BT102" s="12">
         <v>8.6993970714901031E-2</v>
       </c>
+      <c r="BU102">
+        <v>0.1043160820084562</v>
+      </c>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>42339</v>
       </c>
@@ -23055,8 +23381,11 @@
       <c r="BT103" s="12">
         <v>6.677937447168221E-2</v>
       </c>
+      <c r="BU103">
+        <v>0.44901894913785312</v>
+      </c>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>42402</v>
       </c>
@@ -23273,8 +23602,11 @@
       <c r="BT104" s="12">
         <v>6.677937447168221E-2</v>
       </c>
+      <c r="BU104">
+        <v>0.90016752843532555</v>
+      </c>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>42430</v>
       </c>
@@ -23491,8 +23823,11 @@
       <c r="BT105" s="12">
         <v>4.9455155071249E-2</v>
       </c>
+      <c r="BU105">
+        <v>0.74728202422074796</v>
+      </c>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>42465</v>
       </c>
@@ -23709,8 +24044,11 @@
       <c r="BT106" s="12">
         <v>4.9455155071249E-2</v>
       </c>
+      <c r="BU106">
+        <v>0.66344356806211857</v>
+      </c>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>42493</v>
       </c>
@@ -23927,8 +24265,11 @@
       <c r="BT107" s="12">
         <v>4.9455155071249E-2</v>
       </c>
+      <c r="BU107">
+        <v>-9.2750473399227651E-3</v>
+      </c>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>42528</v>
       </c>
@@ -24145,8 +24486,11 @@
       <c r="BT108" s="12">
         <v>2.1739130434782632E-2</v>
       </c>
+      <c r="BU108">
+        <v>0.42211660747653029</v>
+      </c>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>42556</v>
       </c>
@@ -24363,8 +24707,11 @@
       <c r="BT109" s="12">
         <v>2.1739130434782632E-2</v>
       </c>
+      <c r="BU109">
+        <v>-3.6724543545708546E-2</v>
+      </c>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>42584</v>
       </c>
@@ -24581,8 +24928,11 @@
       <c r="BT110" s="12">
         <v>2.1739130434782632E-2</v>
       </c>
+      <c r="BU110">
+        <v>-0.7446073454066322</v>
+      </c>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>42619</v>
       </c>
@@ -24799,8 +25149,11 @@
       <c r="BT111" s="12">
         <v>1.7432646592710006E-2</v>
       </c>
+      <c r="BU111">
+        <v>-0.54693226120496807</v>
+      </c>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>42647</v>
       </c>
@@ -25017,8 +25370,11 @@
       <c r="BT112" s="12">
         <v>1.7432646592710006E-2</v>
       </c>
+      <c r="BU112">
+        <v>-0.33796159994814196</v>
+      </c>
     </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>42675</v>
       </c>
@@ -25235,8 +25591,11 @@
       <c r="BT113" s="12">
         <v>1.7432646592710006E-2</v>
       </c>
+      <c r="BU113">
+        <v>1.5875206014947144E-2</v>
+      </c>
     </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>42710</v>
       </c>
@@ -25453,8 +25812,11 @@
       <c r="BT114" s="12">
         <v>4.0412044374009574E-2</v>
       </c>
+      <c r="BU114">
+        <v>3.2792211301270691E-2</v>
+      </c>
     </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>42773</v>
       </c>
@@ -25671,8 +26033,11 @@
       <c r="BT115" s="12">
         <v>4.0412044374009574E-2</v>
       </c>
+      <c r="BU115">
+        <v>-0.44395303222040361</v>
+      </c>
     </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>42801</v>
       </c>
@@ -25889,8 +26254,11 @@
       <c r="BT116" s="12">
         <v>6.6293929712460037E-2</v>
       </c>
+      <c r="BU116">
+        <v>-0.53658075720857112</v>
+      </c>
     </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>42829</v>
       </c>
@@ -26107,8 +26475,11 @@
       <c r="BT117" s="12">
         <v>6.6293929712460037E-2</v>
       </c>
+      <c r="BU117">
+        <v>-0.43272705073049655</v>
+      </c>
     </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>42857</v>
       </c>
@@ -26325,8 +26696,11 @@
       <c r="BT118" s="12">
         <v>6.6293929712460037E-2</v>
       </c>
+      <c r="BU118">
+        <v>-0.93471294926599402</v>
+      </c>
     </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>42892</v>
       </c>
@@ -26543,8 +26917,11 @@
       <c r="BT119" s="12">
         <v>7.2498029944838366E-2</v>
       </c>
+      <c r="BU119">
+        <v>-1.0766882001500206</v>
+      </c>
     </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>42920</v>
       </c>
@@ -26761,8 +27138,11 @@
       <c r="BT120" s="12">
         <v>7.2498029944838366E-2</v>
       </c>
+      <c r="BU120">
+        <v>-0.74941294741662756</v>
+      </c>
     </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>42948</v>
       </c>
@@ -26979,8 +27359,11 @@
       <c r="BT121" s="12">
         <v>7.2498029944838366E-2</v>
       </c>
+      <c r="BU121">
+        <v>-0.97049854873126673</v>
+      </c>
     </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>42983</v>
       </c>
@@ -27197,8 +27580,11 @@
       <c r="BT122" s="12">
         <v>5.1401869158878455E-2</v>
       </c>
+      <c r="BU122">
+        <v>-0.58175274844657321</v>
+      </c>
     </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43011</v>
       </c>
@@ -27415,8 +27801,11 @@
       <c r="BT123" s="12">
         <v>5.1401869158878455E-2</v>
       </c>
+      <c r="BU123">
+        <v>-0.99812552887574668</v>
+      </c>
     </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43046</v>
       </c>
@@ -27633,8 +28022,11 @@
       <c r="BT124" s="12">
         <v>5.1401869158878455E-2</v>
       </c>
+      <c r="BU124">
+        <v>-1.0440056540037357</v>
+      </c>
     </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43074</v>
       </c>
@@ -27851,8 +28243,11 @@
       <c r="BT125" s="12">
         <v>3.4272658035034272E-2</v>
       </c>
+      <c r="BU125">
+        <v>-1.207502971468339</v>
+      </c>
     </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43137</v>
       </c>
@@ -28069,8 +28464,11 @@
       <c r="BT126" s="12">
         <v>3.4272658035034272E-2</v>
       </c>
+      <c r="BU126">
+        <v>-0.99501938466764284</v>
+      </c>
     </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43165</v>
       </c>
@@ -28287,8 +28685,11 @@
       <c r="BT127" s="12">
         <v>1.0486891385767833E-2</v>
       </c>
+      <c r="BU127">
+        <v>-0.83150851414681559</v>
+      </c>
     </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43193</v>
       </c>
@@ -28505,8 +28906,11 @@
       <c r="BT128" s="12">
         <v>1.0486891385767833E-2</v>
       </c>
+      <c r="BU128">
+        <v>-1.0965271578713787</v>
+      </c>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43221</v>
       </c>
@@ -28723,8 +29127,11 @@
       <c r="BT129" s="12">
         <v>1.0486891385767833E-2</v>
       </c>
+      <c r="BU129">
+        <v>-0.62396258713061203</v>
+      </c>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43256</v>
       </c>
@@ -28941,8 +29348,11 @@
       <c r="BT130" s="12">
         <v>-1.6164584864070453E-2</v>
       </c>
+      <c r="BU130">
+        <v>-0.58141186469916817</v>
+      </c>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>43284</v>
       </c>
@@ -29159,8 +29569,11 @@
       <c r="BT131" s="12">
         <v>-1.6164584864070453E-2</v>
       </c>
+      <c r="BU131">
+        <v>-0.70067066667657374</v>
+      </c>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>43319</v>
       </c>
@@ -29377,8 +29790,11 @@
       <c r="BT132" s="12">
         <v>-1.6164584864070453E-2</v>
       </c>
+      <c r="BU132">
+        <v>-0.80737065477634207</v>
+      </c>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>43347</v>
       </c>
@@ -29595,8 +30011,11 @@
       <c r="BT133" s="12">
         <v>-1.7777777777777819E-2</v>
       </c>
+      <c r="BU133">
+        <v>-0.74385921393006948</v>
+      </c>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>43375</v>
       </c>
@@ -29813,8 +30232,11 @@
       <c r="BT134" s="12">
         <v>-1.7777777777777819E-2</v>
       </c>
+      <c r="BU134">
+        <v>-0.51363143036526893</v>
+      </c>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>43410</v>
       </c>
@@ -30031,8 +30453,11 @@
       <c r="BT135" s="12">
         <v>-1.7777777777777819E-2</v>
       </c>
+      <c r="BU135">
+        <v>-0.67156118276538002</v>
+      </c>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>43438</v>
       </c>
@@ -30249,8 +30674,11 @@
       <c r="BT136" s="12">
         <v>-4.1973490427098796E-2</v>
       </c>
+      <c r="BU136">
+        <v>-0.69057617786636172</v>
+      </c>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>43501</v>
       </c>
@@ -30467,8 +30895,11 @@
       <c r="BT137" s="12">
         <v>-4.1973490427098796E-2</v>
       </c>
+      <c r="BU137">
+        <v>-0.83298215442536894</v>
+      </c>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>43529</v>
       </c>
@@ -30685,8 +31116,11 @@
       <c r="BT138" s="12">
         <v>-6.4492216456634568E-2</v>
       </c>
+      <c r="BU138">
+        <v>-0.84054855789717453</v>
+      </c>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>43557</v>
       </c>
@@ -30903,8 +31337,11 @@
       <c r="BT139" s="12">
         <v>-6.4492216456634568E-2</v>
       </c>
+      <c r="BU139">
+        <v>-1.1689704636540637</v>
+      </c>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>43592</v>
       </c>
@@ -31121,8 +31558,11 @@
       <c r="BT140" s="12">
         <v>-6.4492216456634568E-2</v>
       </c>
+      <c r="BU140">
+        <v>-1.4040905621341593</v>
+      </c>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>43620</v>
       </c>
@@ -31339,8 +31779,11 @@
       <c r="BT141" s="12">
         <v>-6.4973861090365959E-2</v>
       </c>
+      <c r="BU141">
+        <v>-1.0598258834903564</v>
+      </c>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>43648</v>
       </c>
@@ -31557,8 +32000,11 @@
       <c r="BT142" s="12">
         <v>-6.4973861090365959E-2</v>
       </c>
+      <c r="BU142">
+        <v>-1.1556797599863786</v>
+      </c>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>43683</v>
       </c>
@@ -31590,7 +32036,7 @@
         <v>2.9254022428083861E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>43711</v>
       </c>
